--- a/pz/pz3-4/Таблица методов.xlsx
+++ b/pz/pz3-4/Таблица методов.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143.0625</v>
+        <v>4.98413148894906</v>
       </c>
       <c r="C2" t="n">
-        <v>26.75</v>
+        <v>14.99920654296875</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001757144927978516</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00075531005859375</v>
+        <v>0.00079345703125</v>
       </c>
     </row>
     <row r="3">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.000000099201189</v>
+        <v>5.000000038802162</v>
       </c>
       <c r="C3" t="n">
-        <v>14.99968503779781</v>
+        <v>4.999803017355178</v>
       </c>
       <c r="D3" t="n">
         <v>26</v>
@@ -516,16 +516,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.000000327261001</v>
+        <v>5.0000002668774</v>
       </c>
       <c r="C4" t="n">
-        <v>14.99942793269508</v>
+        <v>4.999483398218556</v>
       </c>
       <c r="D4" t="n">
         <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0009970664978027344</v>
+        <v>0.0009989738464355469</v>
       </c>
       <c r="F4" t="n">
         <v>0.003089935859669879</v>
